--- a/biology/Médecine/Georges_Guillain_(médecin)/Georges_Guillain_(médecin).xlsx
+++ b/biology/Médecine/Georges_Guillain_(médecin)/Georges_Guillain_(médecin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Georges_Guillain_(m%C3%A9decin)</t>
+          <t>Georges_Guillain_(médecin)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Georges Charles Guillain, né à Rouen[1] le 3 mars 1876 et mort à Paris le 29 juin 1961, est un neurologue français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Georges Charles Guillain, né à Rouen le 3 mars 1876 et mort à Paris le 29 juin 1961, est un neurologue français.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Georges_Guillain_(m%C3%A9decin)</t>
+          <t>Georges_Guillain_(médecin)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,17 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il commence ses études de médecine dans sa ville natale, puis s'installe à Paris où il est externe, puis interne, en 1898, premier de sa promotion. Il s'oriente rapidement vers la neurologie, il est l'interne de Fulgence Raymond, qui a succédé à Jean-Martin Charcot à la Chaire des maladies du système nerveux à la Salpêtrière. Son premier travail scientifique, en 1898, concerne les lésions du plexus brachial. Il obtient son doctorat en médecine à Paris en 1902.
-En 1909, il épouse Juliette Chauffard, qui lui donnera cinq filles : Yvonne (1907-1969), mariée au neurologue Marie-Mathieu Garcin[2], Andrée (1908-), mariée à Claude de Cambronne, Jacqueline, Georgine et Solange[3].
+En 1909, il épouse Juliette Chauffard, qui lui donnera cinq filles : Yvonne (1907-1969), mariée au neurologue Marie-Mathieu Garcin, Andrée (1908-), mariée à Claude de Cambronne, Jacqueline, Georgine et Solange.
 Il est chef de clinique des maladies du système nerveux de 1903 à 1905, médecin des hôpitaux en 1906, et professeur agrégé en 1910, à l'âge 34 ans seulement.
-Durant la Première Guerre mondiale, il sert à l'École de médecine et de chirurgie de guerre, créée par Claudius Regaud et qui fonctionne dans l'HOE[note 1] de Bouleuse, près de Reims. Cette école devint un centre réputé d'instruction et de perfectionnement pour tous les médecins et les chirurgiens qui y passaient. Puis il sert en qualité de médecin-chef du Centre neurologique de la VIe Armée avec son ami Jean Alexandre Barré. C'est en 1916 que ces deux médecins décrivent avec André Strohl le syndrome de radiculo-névrite avec hyperalbuminose du liquide céphalo-rachidien sans réaction cellulaire, dit Syndrome de Guillain-Barré[4].
-En 1919, il est nommé médecin à l'hôpital de la Charité. Sa carrière est couronnée en 1923 par sa nomination à 47 ans à la chaire de neurologie à l'hôpital de la Salpêtrière de Paris, où il succède à Pierre Marie. Il occupe cette chaire jusqu'à sa retraite en 1947, et, meurt en son domicile, 215bis, boulevard Saint-Germain, dans le 7e arrondissement de Paris[5].
+Durant la Première Guerre mondiale, il sert à l'École de médecine et de chirurgie de guerre, créée par Claudius Regaud et qui fonctionne dans l'HOE[note 1] de Bouleuse, près de Reims. Cette école devint un centre réputé d'instruction et de perfectionnement pour tous les médecins et les chirurgiens qui y passaient. Puis il sert en qualité de médecin-chef du Centre neurologique de la VIe Armée avec son ami Jean Alexandre Barré. C'est en 1916 que ces deux médecins décrivent avec André Strohl le syndrome de radiculo-névrite avec hyperalbuminose du liquide céphalo-rachidien sans réaction cellulaire, dit Syndrome de Guillain-Barré.
+En 1919, il est nommé médecin à l'hôpital de la Charité. Sa carrière est couronnée en 1923 par sa nomination à 47 ans à la chaire de neurologie à l'hôpital de la Salpêtrière de Paris, où il succède à Pierre Marie. Il occupe cette chaire jusqu'à sa retraite en 1947, et, meurt en son domicile, 215bis, boulevard Saint-Germain, dans le 7e arrondissement de Paris.
 Guillain a publié de nombreux articles scientifiques. Avec son ami Barré, il publia notamment en 1920 un grand travail relatant leur expérience clinique durant la guerre. 
-En dehors de son œuvre scientifique, il est aussi l'auteur d'une biographie de Charcot[6] qui fait autorité.
+En dehors de son œuvre scientifique, il est aussi l'auteur d'une biographie de Charcot qui fait autorité.
 </t>
         </is>
       </c>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Georges_Guillain_(m%C3%A9decin)</t>
+          <t>Georges_Guillain_(médecin)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Éponymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Réaction de Guillain-Laroche-Léchelle, réaction au benjoin colloïdal.
 Syndrome de Guillain-Barré-Strohl, la forme commune de polyradiculoneuropathie inflammatoire acquise.
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Georges_Guillain_(m%C3%A9decin)</t>
+          <t>Georges_Guillain_(médecin)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Anatomie topographique du système nerveux central, Georges Guillain, Ivan Bertrand, 1926.
 J.M. Charcot (1835-1893) : Sa vie, son œuvre, Paris, Masson, 1955, 188 p. (OCLC 14649700).</t>
@@ -593,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Georges_Guillain_(m%C3%A9decin)</t>
+          <t>Georges_Guillain_(médecin)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,9 +629,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Légion d'honneur : Chevalier le 19 juillet 1916, à titre militaire, Officier le 31 juillet 1928, Commandeur le 14 septembre 1949[7].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Légion d'honneur : Chevalier le 19 juillet 1916, à titre militaire, Officier le 31 juillet 1928, Commandeur le 14 septembre 1949.
  Commandeur de l'ordre de l'Étoile de Roumanie
  Officier de l'ordre de Léopold
  Commandeur de l'ordre du Ouissam alaouite chérifien
@@ -631,7 +651,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Georges_Guillain_(m%C3%A9decin)</t>
+          <t>Georges_Guillain_(médecin)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -649,7 +669,9 @@
           <t>Sources et bibliographie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Raymond Turpin, Notice sur la vie et les travaux de Georges Guillian, 20 septembre 1965</t>
         </is>
